--- a/biology/Botanique/Echinospartum_horridum/Echinospartum_horridum.xlsx
+++ b/biology/Botanique/Echinospartum_horridum/Echinospartum_horridum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinospartum horridum, le genêt hérissé ou genêt très épineux, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae,  endémique des Pyrénées françaises et espagnoles et du Massif central[2].
-Cette espèce est menacée d'extinction, elle est classée « VU » (espèce vulnérable) dans la liste rouge des espèces menacées en France[3] et protégée en France où elle est inscrite dans la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinospartum horridum, le genêt hérissé ou genêt très épineux, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae,  endémique des Pyrénées françaises et espagnoles et du Massif central.
+Cette espèce est menacée d'extinction, elle est classée « VU » (espèce vulnérable) dans la liste rouge des espèces menacées en France et protégée en France où elle est inscrite dans la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (18 octobre 2018)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (18 octobre 2018) :
 Cytisanthus horridus (Vahl) Gams
 Genista horrida (M. Vahl) DC.</t>
         </is>
